--- a/tests/ahmad/information request from HMO.xlsx
+++ b/tests/ahmad/information request from HMO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abu Nawaf\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abu Nawaf\labRep\tests\ahmad\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -878,21 +878,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -903,6 +888,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1186,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="A10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1201,10 +1201,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="30"/>
     </row>
     <row r="2" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1257,10 +1257,10 @@
       <c r="B8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="28" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1274,7 +1274,7 @@
       <c r="C9" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="26">
         <v>3512426</v>
       </c>
     </row>
@@ -1288,7 +1288,7 @@
       <c r="C10" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="27">
         <v>2544552</v>
       </c>
     </row>
@@ -1306,19 +1306,19 @@
       <c r="A12" s="10"/>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
     </row>
     <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
     </row>
     <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
@@ -1419,7 +1419,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="72.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="29" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="8" t="s">
